--- a/Chức năng.xlsx
+++ b/Chức năng.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Tuan Nguyen\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +33,6 @@
     <t>Quản lý bàn</t>
   </si>
   <si>
-    <t>Quản lý nhân viên</t>
-  </si>
-  <si>
     <t>Quản lý đăng nhập tài khoản</t>
   </si>
   <si>
@@ -90,6 +82,9 @@
   </si>
   <si>
     <t>Cập nhật giá bán cho mỗi loại hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý </t>
   </si>
 </sst>
 </file>
@@ -150,14 +145,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +436,7 @@
   <dimension ref="D2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,32 +447,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -488,12 +483,12 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -504,13 +499,13 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -520,12 +515,12 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -536,13 +531,13 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -552,12 +547,12 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -568,12 +563,12 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -584,12 +579,12 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -600,13 +595,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -616,24 +611,24 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>16</v>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="4:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
